--- a/Registru_working.xlsx
+++ b/Registru_working.xlsx
@@ -4,29 +4,36 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="24-MAR-2023" sheetId="23" r:id="rId2"/>
-    <sheet name="23-MAR-2023" sheetId="22" r:id="rId3"/>
-    <sheet name="22-MAR-2023" sheetId="21" r:id="rId4"/>
-    <sheet name="21-MAR-2023" sheetId="20" r:id="rId5"/>
-    <sheet name="20-MAR-2023" sheetId="19" r:id="rId6"/>
-    <sheet name="19-MAR-2023" sheetId="18" r:id="rId7"/>
-    <sheet name="17-MAR-2023" sheetId="17" r:id="rId8"/>
-    <sheet name="16-MAR-2023" sheetId="16" r:id="rId9"/>
-    <sheet name="15-MAR-2023" sheetId="13" r:id="rId10"/>
-    <sheet name="14-MAR-2023" sheetId="14" r:id="rId11"/>
-    <sheet name="13-MAR-2023" sheetId="15" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId13"/>
+    <sheet name="9-IUL-2023" sheetId="30" r:id="rId2"/>
+    <sheet name="5-IUN-2023" sheetId="29" r:id="rId3"/>
+    <sheet name="17-APR-2023" sheetId="28" r:id="rId4"/>
+    <sheet name="31-MAR-2023" sheetId="27" r:id="rId5"/>
+    <sheet name="28-MAR-2023" sheetId="26" r:id="rId6"/>
+    <sheet name="27-MAR-2023" sheetId="25" r:id="rId7"/>
+    <sheet name="26-MAR-2023" sheetId="24" r:id="rId8"/>
+    <sheet name="24-MAR-2023" sheetId="23" r:id="rId9"/>
+    <sheet name="23-MAR-2023" sheetId="22" r:id="rId10"/>
+    <sheet name="22-MAR-2023" sheetId="21" r:id="rId11"/>
+    <sheet name="21-MAR-2023" sheetId="20" r:id="rId12"/>
+    <sheet name="20-MAR-2023" sheetId="19" r:id="rId13"/>
+    <sheet name="19-MAR-2023" sheetId="18" r:id="rId14"/>
+    <sheet name="17-MAR-2023" sheetId="17" r:id="rId15"/>
+    <sheet name="16-MAR-2023" sheetId="16" r:id="rId16"/>
+    <sheet name="15-MAR-2023" sheetId="13" r:id="rId17"/>
+    <sheet name="14-MAR-2023" sheetId="14" r:id="rId18"/>
+    <sheet name="13-MAR-2023" sheetId="15" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="241">
   <si>
     <t>INDEX</t>
   </si>
@@ -213,35 +220,9 @@
     <t>Joc doar la turneele principale</t>
   </si>
   <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>efgh</t>
-  </si>
-  <si>
-    <t>xyz,Barcelona,SJ-Salaj</t>
-  </si>
-  <si>
-    <t>Pacient de 30 de ani, sofer de tip cu obezitate de gradul II._x000D_
-Acuza stari de somnolenta si oboseala acuta</t>
-  </si>
-  <si>
     <t>CENTRAL</t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.20 mbar</t>
-  </si>
-  <si>
-    <t>Hipertensiune arteriala</t>
-  </si>
-  <si>
-    <t>Tratament acasa cu Ventolin_x000D_
-Exercitii fizice zilnice</t>
-  </si>
-  <si>
     <t>,,IS-Iasi</t>
   </si>
   <si>
@@ -249,9 +230,6 @@
   </si>
   <si>
     <t>UNGUREANU</t>
-  </si>
-  <si>
-    <t>ABCD EFGH</t>
   </si>
   <si>
     <t>ADRIAN MINUNE</t>
@@ -306,30 +284,6 @@
     <t>1900106226807</t>
   </si>
   <si>
-    <t>george</t>
-  </si>
-  <si>
-    <t>zilot</t>
-  </si>
-  <si>
-    <t>GEORGE ZILOT</t>
-  </si>
-  <si>
-    <t>2369875146531</t>
-  </si>
-  <si>
-    <t>,,HD-Hunedoara</t>
-  </si>
-  <si>
-    <t>asdadsad</t>
-  </si>
-  <si>
-    <t>dfgdfgdf</t>
-  </si>
-  <si>
-    <t>dgdfgdfgdfgfdgfd</t>
-  </si>
-  <si>
     <t>1020304050601</t>
   </si>
   <si>
@@ -357,35 +311,6 @@
     <t>2220007891234</t>
   </si>
   <si>
-    <t>Mihai</t>
-  </si>
-  <si>
-    <t>Eminescu</t>
-  </si>
-  <si>
-    <t>3501524982698</t>
-  </si>
-  <si>
-    <t>str Poeziei nr 8,Ipotesti,BT-Botosani</t>
-  </si>
-  <si>
-    <t>1 mbar</t>
-  </si>
-  <si>
-    <t>Piatra la rinichi_x000D_
-Hipertensiune</t>
-  </si>
-  <si>
-    <t>Ventolin seara</t>
-  </si>
-  <si>
-    <t>MIHAI EMINESCU</t>
-  </si>
-  <si>
-    <t>Pacient in varsta de 25 de ani, stare relativ buna acum, cu saturatie 93% fara masca oxigen, 98% cu oxigen._x000D_
-Foloseste masca noaptea la nevoie.</t>
-  </si>
-  <si>
     <t>12%</t>
   </si>
   <si>
@@ -422,35 +347,6 @@
     <t>xyxyxyxyxyxx</t>
   </si>
   <si>
-    <t>razvan</t>
-  </si>
-  <si>
-    <t>ungureanu</t>
-  </si>
-  <si>
-    <t>vasile alecsandri,GURA HUMORULUI,SV-Suceava</t>
-  </si>
-  <si>
-    <t>wefcwe</t>
-  </si>
-  <si>
-    <t>Pacient cunoscut drept pufosel, motan somnoros si torcacios, cu istoric de ronhopatie nocturna (declaratid de catre pufosica), se adreseaza pentru poligrafie respiratorie de somn._x000D_
-PR: sdr de apnee de somn de tip obstructiv, forma moderata(AHI=17/ora), ID=20/ora, Sp medie nocturna=94%._x000D_
-Autotitrarea presiunii pozitive: masca nazala, 9-12cmH2O. AHI restant=1/ora, presiunea medie eficienta=12._x000D_
-REc: continua terapia cu presiune pozitva, masca nazal, intre 9-13cmH2), minim 5 ore/noapte, pe termen nelimitat. control la 1 luna.+scadere ponderala.+regim de iubire zilnic!_x000D_
-c2: complianta buna, 90%. continua cu 9-13</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>9-13</t>
-  </si>
-  <si>
-    <t>titrare 1 noapte cu presiune 9-12, apoi citire card de complianta;_x000D_
-c1: c=90%; ahi restant 1. continua 9-12cmH20.</t>
-  </si>
-  <si>
     <t>OBSTRUCTIV</t>
   </si>
   <si>
@@ -509,9 +405,6 @@
   </si>
   <si>
     <t>asfdsfdsfs</t>
-  </si>
-  <si>
-    <t>burtica mare</t>
   </si>
   <si>
     <t>fghfghgfh</t>
@@ -735,6 +628,149 @@
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>2596531234897</t>
+  </si>
+  <si>
+    <t>vasile alecsandri,gura humorului,SV-Suceava</t>
+  </si>
+  <si>
+    <t>Pacienta in varsa de 32 de ani prezinta o stare mare de somn. Ochi semi-deschisi</t>
+  </si>
+  <si>
+    <t>12 mbar</t>
+  </si>
+  <si>
+    <t>Fibrom uterin</t>
+  </si>
+  <si>
+    <t>Ungureanuu</t>
+  </si>
+  <si>
+    <t>ELENA UNGUREANUU</t>
+  </si>
+  <si>
+    <t>A se odihni bine noaptea si fara zgomot</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>2222333344441</t>
+  </si>
+  <si>
+    <t>IS-Iasi</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOE</t>
+  </si>
+  <si>
+    <t>1234567891010</t>
+  </si>
+  <si>
+    <t>Zilot</t>
+  </si>
+  <si>
+    <t>George Ion</t>
+  </si>
+  <si>
+    <t>GEORGE ION ZILOT</t>
+  </si>
+  <si>
+    <t>Banateni,HD-Hunedoara</t>
+  </si>
+  <si>
+    <t>2369875146531</t>
+  </si>
+  <si>
+    <t>2000300040001</t>
+  </si>
+  <si>
+    <t>lshfkdsfdsfs</t>
+  </si>
+  <si>
+    <t>dsfdfgf</t>
+  </si>
+  <si>
+    <t>dfgdfgfdg</t>
+  </si>
+  <si>
+    <t>steauaa,pipera,Bucuresti</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDERSON</t>
+  </si>
+  <si>
+    <t>3333555588881</t>
+  </si>
+  <si>
+    <t>matrix nr3,Zeon,TL-Tulcea</t>
+  </si>
+  <si>
+    <t>Pacient cu vizibillitate matriciala</t>
+  </si>
+  <si>
+    <t>3 mbar</t>
+  </si>
+  <si>
+    <t>Orbire</t>
+  </si>
+  <si>
+    <t>A se deconecta din matrice</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST TESTING</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>LEONARD STROEA</t>
+  </si>
+  <si>
+    <t>1234567891011</t>
+  </si>
+  <si>
+    <t>Dureri de spate</t>
+  </si>
+  <si>
+    <t>Gastrita cronica</t>
+  </si>
+  <si>
+    <t>Odihna si fara efort la ridicare. Fara albini!</t>
+  </si>
+  <si>
+    <t>Vasile Lupu,Iasi,IS-Iasi</t>
+  </si>
+  <si>
+    <t>Pacient in varsta de 33 de ani cu un astm bronsic alergic. Dureri in pipet si dificultate de respiratie</t>
+  </si>
+  <si>
+    <t>Astm bronosic</t>
+  </si>
+  <si>
+    <t>Montelukast_x000D_
+Ventolin la nevoie_x000D_
+Borenar_x000D_
+Nasonex pentru ameliorare polipi nazali_x000D_
+_x000D_
+A se evita contactul cu factorii alergeni</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1313,1470 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="3">
+        <v>698746</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3">
+        <v>69876</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="3">
+        <v>125968</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1000"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1372,10 +2868,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -1399,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>48</v>
@@ -1408,7 +2904,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>29</v>
@@ -1429,10 +2925,10 @@
         <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>47</v>
@@ -1474,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S2"/>
@@ -1572,10 +3068,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>55</v>
@@ -1603,10 +3099,10 @@
         <v>25</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>58</v>
@@ -1620,13 +3116,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +3131,7 @@
     <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1712,16 +3208,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -1739,28 +3235,28 @@
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1768,19 +3264,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>20</v>
@@ -1795,7 +3291,7 @@
         <v>6987469</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>17</v>
@@ -1813,10 +3309,66 @@
         <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>187</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +3376,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6987123</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -1858,9 +3555,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1868,11 +3565,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1883,7 +3580,7 @@
     <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
@@ -1942,24 +3639,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -1968,13 +3665,13 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3">
-        <v>777777</v>
+        <v>623987</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>17</v>
@@ -1992,10 +3689,10 @@
         <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2003,21 +3700,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:R2"/>
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2029,7 +3728,7 @@
     <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
@@ -2086,315 +3785,6 @@
       </c>
       <c r="R1" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="3">
-        <v>698746</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3">
-        <v>69876</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2404,12 +3794,299 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3333</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2494,55 +4171,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="3">
-        <v>125968</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2550,10 +4216,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:R5"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3">
+        <v>654897</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1000" sqref="E1000"/>
@@ -2562,871 +4374,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="3">
-        <v>36987</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="405" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="3">
-        <v>123456</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3">
-        <v>56976</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3">
-        <v>123456</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -3501,143 +4453,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>98</v>
+        <v>193</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="3">
+        <v>777777</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>190</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Registru_working.xlsx
+++ b/Registru_working.xlsx
@@ -4,36 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="9-IUL-2023" sheetId="30" r:id="rId2"/>
-    <sheet name="5-IUN-2023" sheetId="29" r:id="rId3"/>
-    <sheet name="17-APR-2023" sheetId="28" r:id="rId4"/>
-    <sheet name="31-MAR-2023" sheetId="27" r:id="rId5"/>
-    <sheet name="28-MAR-2023" sheetId="26" r:id="rId6"/>
-    <sheet name="27-MAR-2023" sheetId="25" r:id="rId7"/>
-    <sheet name="26-MAR-2023" sheetId="24" r:id="rId8"/>
-    <sheet name="24-MAR-2023" sheetId="23" r:id="rId9"/>
-    <sheet name="23-MAR-2023" sheetId="22" r:id="rId10"/>
-    <sheet name="22-MAR-2023" sheetId="21" r:id="rId11"/>
-    <sheet name="21-MAR-2023" sheetId="20" r:id="rId12"/>
-    <sheet name="20-MAR-2023" sheetId="19" r:id="rId13"/>
-    <sheet name="19-MAR-2023" sheetId="18" r:id="rId14"/>
-    <sheet name="17-MAR-2023" sheetId="17" r:id="rId15"/>
-    <sheet name="16-MAR-2023" sheetId="16" r:id="rId16"/>
-    <sheet name="15-MAR-2023" sheetId="13" r:id="rId17"/>
-    <sheet name="14-MAR-2023" sheetId="14" r:id="rId18"/>
-    <sheet name="13-MAR-2023" sheetId="15" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId20"/>
+    <sheet name="25-AUG-2023" sheetId="31" r:id="rId2"/>
+    <sheet name="9-IUL-2023" sheetId="30" r:id="rId3"/>
+    <sheet name="5-IUN-2023" sheetId="29" r:id="rId4"/>
+    <sheet name="17-APR-2023" sheetId="28" r:id="rId5"/>
+    <sheet name="31-MAR-2023" sheetId="27" r:id="rId6"/>
+    <sheet name="28-MAR-2023" sheetId="26" r:id="rId7"/>
+    <sheet name="27-MAR-2023" sheetId="25" r:id="rId8"/>
+    <sheet name="26-MAR-2023" sheetId="24" r:id="rId9"/>
+    <sheet name="24-MAR-2023" sheetId="23" r:id="rId10"/>
+    <sheet name="23-MAR-2023" sheetId="22" r:id="rId11"/>
+    <sheet name="22-MAR-2023" sheetId="21" r:id="rId12"/>
+    <sheet name="21-MAR-2023" sheetId="20" r:id="rId13"/>
+    <sheet name="20-MAR-2023" sheetId="19" r:id="rId14"/>
+    <sheet name="19-MAR-2023" sheetId="18" r:id="rId15"/>
+    <sheet name="17-MAR-2023" sheetId="17" r:id="rId16"/>
+    <sheet name="16-MAR-2023" sheetId="16" r:id="rId17"/>
+    <sheet name="15-MAR-2023" sheetId="13" r:id="rId18"/>
+    <sheet name="14-MAR-2023" sheetId="14" r:id="rId19"/>
+    <sheet name="13-MAR-2023" sheetId="15" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="245">
   <si>
     <t>INDEX</t>
   </si>
@@ -598,9 +599,6 @@
   <si>
     <t>Diabet zaharat grad ii_x000D_
 Operatie pe cord</t>
-  </si>
-  <si>
-    <t>odihna si monitorizare saturatie permanenta</t>
   </si>
   <si>
     <t>Putin</t>
@@ -771,6 +769,30 @@
 Nasonex pentru ameliorare polipi nazali_x000D_
 _x000D_
 A se evita contactul cu factorii alergeni</t>
+  </si>
+  <si>
+    <t>vasile lupu. nr 96 B,Iasi,IS-Iasi</t>
+  </si>
+  <si>
+    <t>Pacient de 33 ani se adreseaza pentru respiratie orala nocturna, somn fragmentat. Ronhopatie semnala de anturaj (sotie)._x000D_
+Somnolenta diurna excesiva, obstructie nazala, rara tuse seaca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindrom de rezistenta a cailor aeriene superioare._x000D_
+Ronhopatie_x000D_
+Polipoza nazala pe fond alergic_x000D_
+Astm bronsic usor persistent, neglijat terapeutic_x000D_
+</t>
+  </si>
+  <si>
+    <t>Avamis, 1 puf intranazal bilateral seara._x000D_
+Efectuarea spirometriei, pozitie laterala de somn, igiena somnului_x000D_
+Ventilatie cu presiune pozitiva 8-12 cm/H2O cu reevaluarea peste o luna._x000D_
+C1. Ameliorarea starii generale, remiterea simpotomatologiei, opreste terapia cu presiune pozitiva. Respecta in continuarea masurile de igiena a somnului; continua tratamentul cu Avamis</t>
+  </si>
+  <si>
+    <t>odihna si monitorizare saturatie permanenta_x000D_
+sa nu mai scrie carti</t>
   </si>
 </sst>
 </file>
@@ -1313,12 +1335,157 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1000" sqref="E1000"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="3">
+        <v>777777</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1334,10 +1501,9 @@
     <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1432,26 +1598,26 @@
       <c r="K2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>185</v>
+      <c r="R2" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R5"/>
@@ -1712,13 +1878,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>164</v>
@@ -1754,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:R2"/>
@@ -1902,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:R2"/>
@@ -2045,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R3"/>
@@ -2181,19 +2347,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -2232,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R5"/>
@@ -2534,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R4"/>
@@ -2769,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S3"/>
@@ -2904,7 +3070,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>29</v>
@@ -2970,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S2"/>
@@ -3116,7 +3282,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="330" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3">
+        <v>236896</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S4"/>
@@ -3376,152 +3687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3">
-        <v>6987123</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -3557,6 +3723,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6987123</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -3644,16 +3955,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>72</v>
@@ -3671,7 +3982,7 @@
         <v>623987</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>17</v>
@@ -3689,10 +4000,10 @@
         <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3700,12 +4011,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3792,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R2"/>
@@ -3882,16 +4193,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -3906,7 +4217,7 @@
         <v>3333</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>20</v>
@@ -3921,13 +4232,13 @@
         <v>90</v>
       </c>
       <c r="P2" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +4246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:R2"/>
@@ -4034,10 +4345,10 @@
         <v>68</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -4052,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>20</v>
@@ -4070,10 +4381,10 @@
         <v>183</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:R2"/>
@@ -4171,19 +4482,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -4202,7 +4513,7 @@
         <v>27</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>182</v>
@@ -4216,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:R2"/>
@@ -4306,19 +4617,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -4333,7 +4644,7 @@
         <v>654897</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>20</v>
@@ -4348,160 +4659,13 @@
         <v>99</v>
       </c>
       <c r="P2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1000" sqref="E1000"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="3">
-        <v>777777</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
